--- a/SARS data ll.xlsx
+++ b/SARS data ll.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20349"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A681F474-C296-44A0-8C50-AE7C9DA520E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56D53B5-6532-449C-AD29-EDC86B1434BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
     <t>1725 (20)</t>
   </si>
   <si>
-    <t>Latitutes</t>
+    <t>Latitudes</t>
   </si>
   <si>
     <t>Longitudes</t>
@@ -1132,9 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
